--- a/data/pedstudysamples.xlsx
+++ b/data/pedstudysamples.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cc8e1a904a64e38e/Documents/Oregon/Courses/datascience spec/edld_640/EDLD-640-Capstone/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{B77A4571-09B6-45ED-A722-D332A66397C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A348A0DD-53F9-48FA-86EE-F72D9511DDC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{20C790EB-AD67-4D17-B836-97D22AE91EF1}"/>
+    <workbookView xWindow="1980" yWindow="828" windowWidth="21060" windowHeight="12132" xr2:uid="{20C790EB-AD67-4D17-B836-97D22AE91EF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="41">
   <si>
     <t>study</t>
   </si>
@@ -104,7 +104,61 @@
     <t>baseline(enhance)</t>
   </si>
   <si>
-    <t>To be added: Bhazyadi et al., 2019; Yu et al., 2018; any ST studies? Study mentioned by Sobel</t>
+    <t>Yu et al.</t>
+  </si>
+  <si>
+    <t>direct instruction (constrain)</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>I'm telling you you push this button</t>
+  </si>
+  <si>
+    <t>participant age</t>
+  </si>
+  <si>
+    <t>4_6</t>
+  </si>
+  <si>
+    <t>To be added: any ST studies? Study mentioned by Sobel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bazhydai et al. </t>
+  </si>
+  <si>
+    <t>complex action</t>
+  </si>
+  <si>
+    <t>look at this this is how you do it</t>
+  </si>
+  <si>
+    <t>non-pedagogy (enhance)</t>
+  </si>
+  <si>
+    <t>wow is that your new toy that's an interesting toy I've never seen that before can you show me how to play with it</t>
+  </si>
+  <si>
+    <t>Butler &amp; Markman</t>
+  </si>
+  <si>
+    <t>naïve (enhancee</t>
+  </si>
+  <si>
+    <t>3_4</t>
+  </si>
+  <si>
+    <t>look watch this</t>
+  </si>
+  <si>
+    <t>oops</t>
+  </si>
+  <si>
+    <t>magnetic</t>
+  </si>
+  <si>
+    <t>2_3</t>
   </si>
 </sst>
 </file>
@@ -140,8 +194,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,21 +511,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C346CE5-D46F-436E-8D26-7D0843DE79E6}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="55.5546875" customWidth="1"/>
+    <col min="1" max="1" width="40.44140625" customWidth="1"/>
     <col min="3" max="3" width="20.44140625" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="39.88671875" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" customWidth="1"/>
+    <col min="6" max="6" width="39.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -484,10 +540,13 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -500,11 +559,14 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -517,11 +579,14 @@
       <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -535,10 +600,13 @@
         <v>6</v>
       </c>
       <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -552,10 +620,13 @@
         <v>6</v>
       </c>
       <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -569,10 +640,13 @@
         <v>16</v>
       </c>
       <c r="E6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -586,10 +660,13 @@
         <v>16</v>
       </c>
       <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -603,10 +680,13 @@
         <v>16</v>
       </c>
       <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -620,12 +700,115 @@
         <v>16</v>
       </c>
       <c r="E9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>2018</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>29</v>
+      </c>
+      <c r="B11">
+        <v>2019</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12">
+        <v>2019</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13">
+        <v>2012</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14">
+        <v>2012</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
